--- a/NORP Text to SQL Dataset.xlsx
+++ b/NORP Text to SQL Dataset.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FDDF626-6E2A-4C58-9A56-E3CA7FA580F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3D45FF-BB4A-4C41-AA55-2D25D42BD8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atlanta" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
   <si>
     <t>Natural Language Query</t>
   </si>
@@ -73,6 +73,17 @@
     atlanta_crime_data
 where
     Crime_Type = 'AUTO THEFT' and area_name = 'Westview';</t>
+  </si>
+  <si>
+    <t>Get all crimes not reported on Wednesday</t>
+  </si>
+  <si>
+    <t>select
+    *
+from
+    atlanta_crime_data
+where
+    NOT Day_Occurred = 'Wednesday';</t>
   </si>
   <si>
     <t>Get all the addresses in Grant Park, Atlanta where crime was reported</t>
@@ -155,6 +166,31 @@
     TIME(Crime_Time) &gt; '18:00';</t>
   </si>
   <si>
+    <t>Get reports of all burglaries and aggravated assaults that occured in Home Park, Atlanta</t>
+  </si>
+  <si>
+    <t>select
+    *
+from
+    atlanta_crime_data
+where
+    Area_name = 'Home Park' and
+    (Crime_Type = 'BURGLARY' or
+    Crime_Type = 'AGG ASSAULT');</t>
+  </si>
+  <si>
+    <t>Get reports of auto theft in Atlanta that didn't happen in Old Gordon</t>
+  </si>
+  <si>
+    <t>select
+    *
+from
+    atlanta_crime_data
+where
+    Crime_Type = 'AUTO THEFT' and
+    area_name != 'Old Gordon';</t>
+  </si>
+  <si>
     <t>Get all the crimes reported in Brooklyn, New York</t>
   </si>
   <si>
@@ -272,6 +308,479 @@
   </si>
   <si>
     <t>Top 5 Entries of Table</t>
+  </si>
+  <si>
+    <t>Get all reported incidents and available data of crime in la</t>
+  </si>
+  <si>
+    <t>SELECT * FROM la_crime_data</t>
+  </si>
+  <si>
+    <t>2
+200,106,753
+September 2, 2020
+August 2, 2020
+1,800
+BURGLARY FROM VEHICLE
+Central
+47
+M
+1000 S FLOWER ST
+34.04
+-118.26
+3
+200,320,258
+November 11, 2020
+April 11, 2020
+1,700
+BIKE - STOLEN
+Southwest
+19
+X
+1400 W 37TH ST
+34.02
+-118.3
+4
+200,907,217
+October 5, 2023
+October 3, 2020
+2,037
+SHOPLIFTING-GRAND THEFT ($950.01 &amp; OVER)
+Van Nuys
+19
+M
+14000 RIVERSIDE DR
+34.16
+-118.44
+5
+220,614,831
+August 18, 2022
+August 17, 2020
+1,200
+THEFT OF IDENTITY
+Hollywood
+28
+M
+1900 TRANSIENT
+34.09
+-118.33
+6
+231,808,869
+April 4, 2023
+January 12, 2020
+2,300
+THEFT OF IDENTITY
+Southeast
+41
+M
+9900 COMPTON AV
+33.95
+-118.25</t>
+  </si>
+  <si>
+    <t>What are most common crimes in la and how many of each happened</t>
+  </si>
+  <si>
+    <t>Select la_crime_data.Crime_Type, COUNT(*) AS occurances FROM la_crime_data GROUP BY la_crime_data.Crime_Type ORDER BY occurances DESC</t>
+  </si>
+  <si>
+    <t>VEHICLE - STOLEN
+96,750
+BATTERY - SIMPLE ASSAULT
+71,648
+THEFT OF IDENTITY
+55,739
+BURGLARY FROM VEHICLE
+55,598
+BURGLARY
+55,206</t>
+  </si>
+  <si>
+    <t>Where does the most crime occur in la and how much</t>
+  </si>
+  <si>
+    <t>Select la_crime_data.Address, COUNT(*) AS occurances FROM la_crime_data GROUP BY la_crime_data.Address ORDER BY occurances DESC</t>
+  </si>
+  <si>
+    <t>800 N ALAMEDA ST
+1,717
+6TH ST
+1,505
+10200 SANTA MONICA BL
+1,445
+7TH ST
+1,428
+7TH
+1,401</t>
+  </si>
+  <si>
+    <t>What time of day is crime most prevalent in la and how many crimes</t>
+  </si>
+  <si>
+    <t>SELECT DATE_FORMAT(STR_TO_DATE(LPAD(crime_time, 4, '0'), '%H%i'), '%H') AS hour, COUNT(*) AS occurrences FROM la_crime_data GROUP BY hour ORDER BY occurrences DESC</t>
+  </si>
+  <si>
+    <t>12
+60,927
+18
+53,662
+17
+52,550
+20
+50,209
+19
+49,603</t>
+  </si>
+  <si>
+    <t>Get the top areas and times at which crime happens in la and how many happened</t>
+  </si>
+  <si>
+    <t>SELECT Address, DATE_FORMAT(STR_TO_DATE(LPAD(crime_time, 4, '0'), '%H%i'), '%H') AS hour, COUNT(*) AS occurrences FROM la_crime_data GROUP BY Address, hour ORDER BY occurrences DESC</t>
+  </si>
+  <si>
+    <t>10200 SANTA MONICA BL
+15
+172
+100 THE GROVE DR
+19
+171
+200 E 6TH ST
+12
+170
+10200 SANTA MONICA BL
+18
+166
+100 THE GROVE DR
+18
+165</t>
+  </si>
+  <si>
+    <t>Get every report and details of each theft in la</t>
+  </si>
+  <si>
+    <t>SELECT * FROM la_crime_data WHERE la_crime_data.Crime_Type REGEXP "THEFT|STOLEN|BURGLARY|ROBBERY"</t>
+  </si>
+  <si>
+    <t>Get the most common locations of theft in la and how many thefts at each location</t>
+  </si>
+  <si>
+    <t>Select la_crime_data.Address, COUNT(*) AS occurances FROM la_crime_data WHERE la_crime_data.Crime_Type REGEXP "THEFT|STOLEN|BURGLARY|ROBBERY" GROUP BY la_crime_data.Address ORDER BY occurances DESC</t>
+  </si>
+  <si>
+    <t>10200 SANTA MONICA BL
+1,206
+100 THE GROVE DR
+1,122
+11800 SANTA MONICA BL
+1,045
+700 S FIGUEROA ST
+1,038
+9300 TAMPA AV
+910</t>
+  </si>
+  <si>
+    <t>Get the most common hours in the day of theft in la</t>
+  </si>
+  <si>
+    <t>SELECT DATE_FORMAT(STR_TO_DATE(LPAD(crime_time, 4, '0'), '%H%i'), '%H') AS hour, COUNT(*) AS occurrences FROM la_crime_data WHERE Crime_Type REGEXP "THEFT|STOLEN|BURGLARY|ROBBERY" GROUP BY hour ORDER BY occurrences DESC</t>
+  </si>
+  <si>
+    <t>12
+37,884
+18
+32,201
+17
+30,940
+19
+28,645
+20
+28,028</t>
+  </si>
+  <si>
+    <t>Get the top areas and times at which theft happens in la</t>
+  </si>
+  <si>
+    <t>SELECT Address, DATE_FORMAT(STR_TO_DATE(LPAD(crime_time, 4, '0'), '%H%i'), '%H') AS hour, COUNT(*) AS occurrences FROM la_crime_data WHERE Crime_Type REGEXP "THEFT|STOLEN|BURGLARY|ROBBERY" GROUP BY Address, hour ORDER BY occurrences DESC</t>
+  </si>
+  <si>
+    <t>100 THE GROVE DR
+19
+156
+10200 SANTA MONICA BL
+15
+151
+10200 SANTA MONICA BL
+18
+142
+100 THE GROVE DR
+18
+139
+100 THE GROVE DR
+17
+138</t>
+  </si>
+  <si>
+    <t>Get every report and details of Assault in the la</t>
+  </si>
+  <si>
+    <t>SELECT * FROM la_crime_data WHERE la_crime_data.Crime_Type REGEXP "ASSAULT"</t>
+  </si>
+  <si>
+    <t>10
+211,904,005
+December 31, 2020
+December 31, 2020
+1,220
+BATTERY - SIMPLE ASSAULT
+Mission
+26
+M
+STRONG-ARM (HANDS, FIST, FEET OR BODILY FORCE)
+9000 CEDROS AV
+34.23
+-118.45
+20
+210,705,560
+November 27, 2020
+November 27, 2020
+1,800
+ASSAULT WITH DEADLY WEAPON, AGGRAVATED ASSAULT
+Wilshire
+31
+F
+VEHICLE
+4500 LOMITA ST
+34.05
+-118.34
+32
+220,808,837
+April 28, 2022
+March 30, 2020
+1,630
+BATTERY - SIMPLE ASSAULT
+West LA
+24
+F
+STRONG-ARM (HANDS, FIST, FEET OR BODILY FORCE)
+1200 S WESTGATE AV
+34.05
+-118.46
+67
+230,817,493
+November 27, 2023
+September 13, 2020
+2,100
+INTIMATE PARTNER - SIMPLE ASSAULT
+West LA
+42
+F
+STRONG-ARM (HANDS, FIST, FEET OR BODILY FORCE)
+1700 COMSTOCK AV
+34.06
+-118.42
+95
+220,313,293
+June 7, 2022
+June 30, 2020
+1,400
+INTIMATE PARTNER - SIMPLE ASSAULT
+Southwest
+25
+F
+STRONG-ARM (HANDS, FIST, FEET OR BODILY FORCE)
+VERMONT AV
+34.01
+-118.29</t>
+  </si>
+  <si>
+    <t>Get the most common locations of Assault in la and how many times it happened</t>
+  </si>
+  <si>
+    <t>Select la_crime_data.Address, COUNT(*) AS occurances FROM la_crime_data WHERE la_crime_data.Crime_Type REGEXP "ASSAULT" GROUP BY la_crime_data.Address ORDER BY occurances DESC</t>
+  </si>
+  <si>
+    <t>800 N ALAMEDA ST
+581
+6TH
+562
+6TH ST
+547
+7TH
+547
+5TH
+539</t>
+  </si>
+  <si>
+    <t>Get the most common hours of Assault in Philadellphia</t>
+  </si>
+  <si>
+    <t>SELECT DATE_FORMAT(STR_TO_DATE(LPAD(crime_time, 4, '0'), '%H%i'), '%H') AS hour, COUNT(*) AS occurrences FROM la_crime_data WHERE la_crime_data.Crime_Type REGEXP "ASSAULT" GROUP BY hour ORDER BY occurrences DESC</t>
+  </si>
+  <si>
+    <t>20
+10,958
+21
+10,933
+22
+10,457
+18
+10,456
+17
+10,382</t>
+  </si>
+  <si>
+    <t>Get the top areas and times at which Assault occurs in la</t>
+  </si>
+  <si>
+    <t>SELECT Address, DATE_FORMAT(STR_TO_DATE(LPAD(crime_time, 4, '0'), '%H%i'), '%H') AS hour, COUNT(*) AS occurrences FROM la_crime_data WHERE la_crime_data.Crime_Type REGEXP "ASSAULT" GROUP BY Address, hour ORDER BY occurrences DESC</t>
+  </si>
+  <si>
+    <t>7TH ST
+15
+45
+5TH
+17
+44
+6TH ST
+14
+43
+6TH
+13
+42
+1000 VIN SCULLY AV
+22
+42</t>
+  </si>
+  <si>
+    <t>Get every report and details of stolen vehicles in la</t>
+  </si>
+  <si>
+    <t>SELECT * FROM la_crime_data WHERE Crime_Type REGEXP "VEHICLE.*STOLEN|STOLEN.*VEHICLE" AND Crime_Type NOT REGEXP "ATTEMPT"</t>
+  </si>
+  <si>
+    <t>15
+221,008,844
+June 5, 2022
+January 11, 2020
+130
+VEHICLE - STOLEN
+West Valley
+0
+VALJEAN ST
+34.19
+-118.49
+27
+200,412,582
+September 9, 2020
+September 9, 2020
+630
+VEHICLE - STOLEN
+Hollenbeck
+0
+200 E AVENUE 28
+34.08
+-118.21
+85
+201,810,154
+April 26, 2020
+April 22, 2020
+1,900
+VEHICLE - STOLEN
+Southeast
+0
+90TH
+33.95
+-118.27
+99
+231,510,293
+May 27, 2023
+November 24, 2020
+200
+VEHICLE - STOLEN
+N Hollywood
+0
+7500 LAUREL CANYON BL
+34.21
+-118.4
+114
+201,410,122
+April 28, 2020
+April 28, 2020
+100
+VEHICLE - STOLEN
+Pacific
+0
+3600 KEYSTONE AV
+34.02
+-118.41</t>
+  </si>
+  <si>
+    <t>Get the most common locations of stolen vehicles in la and how many times at each place</t>
+  </si>
+  <si>
+    <t>Select la_crime_data.Address, COUNT(*) AS occurances FROM la_crime_data WHERE la_crime_data.Crime_Type REGEXP "VEHICLE.*STOLEN|STOLEN.*VEHICLE" AND Crime_Type NOT REGEXP "ATTEMPT" GROUP BY la_crime_data.Address ORDER BY occurances DESC</t>
+  </si>
+  <si>
+    <t>8TH ST
+170
+7TH ST
+166
+BROADWAY
+162
+6TH ST
+158
+OLYMPIC BL
+144</t>
+  </si>
+  <si>
+    <t>Get the most common hours of stolen vehicles in la</t>
+  </si>
+  <si>
+    <t>SELECT DATE_FORMAT(STR_TO_DATE(LPAD(crime_time, 4, '0'), '%H%i'), '%H') AS hour, COUNT(*) AS occurrences FROM la_crime_data WHERE la_crime_data.Crime_Type REGEXP "VEHICLE.*STOLEN|STOLEN.*VEHICLE" AND Crime_Type NOT REGEXP "ATTEMPT" GROUP BY hour ORDER BY occurrences DESC</t>
+  </si>
+  <si>
+    <t>18
+7,512
+20
+7,250
+22
+6,989
+19
+6,960
+21
+6,741</t>
+  </si>
+  <si>
+    <t>Get the top areas and times at which vehicles are stolen in la</t>
+  </si>
+  <si>
+    <t>SELECT Address, DATE_FORMAT(STR_TO_DATE(LPAD(crime_time, 4, '0'), '%H%i'), '%H') AS hour, COUNT(*) AS occurrences FROM la_crime_data WHERE Crime_Type REGEXP "VEHICLE.*STOLEN|STOLEN.*VEHICLE" AND Crime_Type NOT REGEXP "ATTEMPT" GROUP BY Address, hour ORDER BY occurrences DESC</t>
+  </si>
+  <si>
+    <t>7TH ST
+22
+24
+8TH ST
+21
+23
+BROADWAY
+20
+20
+OLYMPIC BL
+19
+19
+MAIN ST
+20
+17</t>
+  </si>
+  <si>
+    <t>What percent of crimes in la were violent</t>
+  </si>
+  <si>
+    <t>What percent of crimes in la happened after 8:00 PM?</t>
+  </si>
+  <si>
+    <t>What percent of crimes in la were vehicular thefts?</t>
   </si>
   <si>
     <t>Get all reported incidents and available data of crime in Philladelphia</t>
@@ -590,9 +1099,6 @@
 702</t>
   </si>
   <si>
-    <t>Get the most common hours of Assault in Philadellphia</t>
-  </si>
-  <si>
     <t>SELECT DATE_FORMAT(Crime_Time, '%H') AS hour, COUNT(*) AS occurrences FROM philly_crime_data WHERE philly_crime_data.Crime_Type = "Aggravated Assault No Firearm" OR philly_crime_data.Crime_Type = "Other Assaults" OR philly_crime_data.Crime_Type = "Aggravated Assault Firearm" GROUP BY hour ORDER BY occurrences DESC</t>
   </si>
   <si>
@@ -741,6 +1247,15 @@
 4800 BLOCK CHESTNUT ST
 11
 9</t>
+  </si>
+  <si>
+    <t>What percent of crimes in Philladelphia were violent</t>
+  </si>
+  <si>
+    <t>What percent of crimes in Philladelphia happened after 8:00 PM?</t>
+  </si>
+  <si>
+    <t>What percent of crimes in philladelphia were vehicular thefts?</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,7 +1677,7 @@
     <col min="2" max="2" width="98.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="87">
+    <row r="2" spans="1:2" ht="81">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1178,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="87">
+    <row r="3" spans="1:2" ht="81">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1186,7 +1701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="87">
+    <row r="4" spans="1:2" ht="81">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="87">
+    <row r="5" spans="1:2" ht="81">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="101.25">
+    <row r="6" spans="1:2" ht="81">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1210,7 +1725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="115.5">
+    <row r="7" spans="1:2" ht="94.5">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1218,7 +1733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="159">
+    <row r="8" spans="1:2" ht="108">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1226,7 +1741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="159">
+    <row r="9" spans="1:2" ht="148.5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1234,12 +1749,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="101.25">
+    <row r="10" spans="1:2" ht="148.5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="94.5">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="108">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="94.5">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1251,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2120051-B597-4F29-9D37-56F07F8E05A6}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1259,7 +1798,7 @@
     <col min="2" max="2" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1267,76 +1806,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="87">
+    <row r="2" spans="1:2" ht="81">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="87">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="81">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="87">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="81">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="87">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="81">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="101.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="94.5">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="115.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="108">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="159">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="148.5">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="159">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="148.5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="101.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="94.5">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1346,23 +1885,232 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5AAB0-5811-452E-9A89-07C03E52003B}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:4" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.6">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="245.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="216.75">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="144.75">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="375.75">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="303.75">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="144.75">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="390">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="409.6">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="174">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="144.75">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="245.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="409.6">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="174">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="144.75">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="245.25">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1374,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C312B59-C9ED-411E-A96B-BD3795418698}">
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1385,7 +2133,7 @@
     <col min="3" max="3" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75">
+    <row r="1" spans="1:19" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1393,332 +2141,347 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="409.6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="409.5">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="245.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="135">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="346.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="135">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="144.75">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="135">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="409.6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="202.5">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="409.6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="409.5">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="390">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="135">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="144.75">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="135">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="409.6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="202.5">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="409.6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="409.5">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="318">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="135">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="144.75">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="409.6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="216.75">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="409.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="409.5">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="346.5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="135">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="144.75">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="135">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="409.6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="202.5">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75">
+    <row r="23" spans="1:4">
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75">
+    <row r="24" spans="1:4">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75">
+    <row r="25" spans="1:4">
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75">
+    <row r="26" spans="1:4">
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75">
+    <row r="27" spans="1:4">
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75">
+    <row r="28" spans="1:4">
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75">
+    <row r="29" spans="1:4">
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75">
+    <row r="30" spans="1:4">
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75">
+    <row r="31" spans="1:4">
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75">
+    <row r="32" spans="1:4">
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="4:4" ht="15.75">
+    <row r="33" spans="4:4">
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="4:4" ht="15.75">
+    <row r="34" spans="4:4">
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="4:4" ht="15.75">
+    <row r="35" spans="4:4">
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="4:4" ht="15.75">
+    <row r="36" spans="4:4">
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="4:4" ht="15.75">
+    <row r="37" spans="4:4">
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="4:4" ht="15.75">
+    <row r="38" spans="4:4">
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="4:4" ht="15.75">
+    <row r="39" spans="4:4">
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="4:4" ht="15.75">
+    <row r="40" spans="4:4">
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="4:4" ht="15.75">
+    <row r="41" spans="4:4">
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="4:4" ht="15.75">
+    <row r="42" spans="4:4">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="4:4" ht="15.75">
+    <row r="43" spans="4:4">
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="4:4" ht="15.75">
+    <row r="44" spans="4:4">
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="4:4" ht="15.75">
+    <row r="45" spans="4:4">
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="4:4" ht="15.75">
+    <row r="46" spans="4:4">
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="4:4" ht="15.75">
+    <row r="47" spans="4:4">
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="4:4" ht="15.75">
+    <row r="48" spans="4:4">
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="4:4" ht="15.75">
+    <row r="49" spans="4:4">
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="4:4" ht="15.75">
+    <row r="50" spans="4:4">
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="4:4" ht="15.75">
+    <row r="51" spans="4:4">
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="4:4" ht="15.75">
+    <row r="52" spans="4:4">
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="4:4" ht="15.75">
+    <row r="53" spans="4:4">
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="4:4" ht="15.75">
+    <row r="54" spans="4:4">
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="4:4" ht="15.75">
+    <row r="55" spans="4:4">
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="4:4" ht="15.75">
+    <row r="56" spans="4:4">
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="4:4" ht="15.75">
+    <row r="57" spans="4:4">
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="4:4" ht="15.75">
+    <row r="58" spans="4:4">
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="4:4" ht="15.75">
+    <row r="59" spans="4:4">
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="4:4" ht="15.75">
+    <row r="60" spans="4:4">
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="4:4" ht="15.75">
+    <row r="61" spans="4:4">
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="4:4" ht="15.75">
+    <row r="62" spans="4:4">
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="4:4" ht="15.75">
+    <row r="63" spans="4:4">
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="4:4" ht="15.75">
+    <row r="64" spans="4:4">
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="4:4" ht="15.75">
+    <row r="65" spans="4:4">
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="4:4" ht="15.75">
+    <row r="66" spans="4:4">
       <c r="D66" s="4"/>
     </row>
   </sheetData>
